--- a/data/trans_orig/IP26B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{627914BF-0639-476D-A600-AD9C61C0B79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04646575-84E8-439F-B233-E14AF5D8AFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F49FA3AA-04F7-482A-BD44-C0E11FC1C21C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF89DA57-7C5C-4AD1-8021-5A59321D3CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="694">
   <si>
     <t>Menores según su opinión sobre tomar el sol en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -95,1987 +95,1960 @@
     <t>17,62%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>13,82%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>Peligroso</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>Sano y peligroso</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>Sano</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>Muy sano</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su opinión sobre tomar el sol en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>Menores según su opinión sobre tomar el sol en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>Peligroso</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>Sano y peligroso</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>Sano</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>Muy sano</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su opinión sobre tomar el sol en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>Menores según su opinión sobre tomar el sol en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
   </si>
   <si>
     <t>Menores según su opinión sobre tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2559,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF43F32-36AF-4348-83F5-CCDEAD090DDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B531053-39AE-480E-A574-F1F9231D4F91}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2968,13 +2941,13 @@
         <v>8063</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2962,13 @@
         <v>119333</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>160</v>
@@ -3004,13 +2977,13 @@
         <v>104802</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>339</v>
@@ -3019,18 +2992,18 @@
         <v>224135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -3048,37 +3021,37 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3066,13 @@
         <v>17878</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -3108,13 +3081,13 @@
         <v>20276</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -3123,13 +3096,13 @@
         <v>38154</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3117,13 @@
         <v>89090</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>134</v>
@@ -3159,13 +3132,13 @@
         <v>89732</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -3174,13 +3147,13 @@
         <v>178822</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3168,13 @@
         <v>125053</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3210,13 +3183,13 @@
         <v>124391</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>375</v>
@@ -3225,13 +3198,13 @@
         <v>249444</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3219,13 @@
         <v>16524</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -3261,13 +3234,13 @@
         <v>12948</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -3276,13 +3249,13 @@
         <v>29472</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3270,13 @@
         <v>4724</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3312,13 +3285,13 @@
         <v>5858</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3327,13 +3300,13 @@
         <v>10581</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3321,13 @@
         <v>253269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>379</v>
@@ -3363,13 +3336,13 @@
         <v>253205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -3378,18 +3351,18 @@
         <v>506474</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3407,37 +3380,37 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3425,13 @@
         <v>5453</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3467,13 +3440,13 @@
         <v>5894</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -3482,13 +3455,13 @@
         <v>11346</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3476,13 @@
         <v>49532</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -3518,13 +3491,13 @@
         <v>32603</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -3533,13 +3506,13 @@
         <v>82135</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,10 +3581,10 @@
         <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -3620,13 +3593,13 @@
         <v>9552</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -3635,13 +3608,13 @@
         <v>16634</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3629,13 @@
         <v>7478</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3671,13 +3644,13 @@
         <v>4003</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3686,13 +3659,13 @@
         <v>11481</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3680,13 @@
         <v>141515</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
         <v>191</v>
@@ -3722,13 +3695,13 @@
         <v>127548</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
         <v>403</v>
@@ -3737,18 +3710,18 @@
         <v>269063</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3766,37 +3739,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3784,13 @@
         <v>10083</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3826,13 +3799,13 @@
         <v>8908</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -3841,13 +3814,13 @@
         <v>18991</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3835,13 @@
         <v>46222</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H27" s="7">
         <v>87</v>
@@ -3877,13 +3850,13 @@
         <v>59933</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M27" s="7">
         <v>157</v>
@@ -3892,13 +3865,13 @@
         <v>106155</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3886,13 @@
         <v>128248</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H28" s="7">
         <v>163</v>
@@ -3928,13 +3901,13 @@
         <v>109494</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
@@ -3943,13 +3916,13 @@
         <v>237741</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3937,13 @@
         <v>19536</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -3979,13 +3952,13 @@
         <v>13710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -3994,13 +3967,13 @@
         <v>33246</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +3988,13 @@
         <v>1961</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -4030,13 +4003,13 @@
         <v>2053</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -4045,13 +4018,13 @@
         <v>4014</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4039,13 @@
         <v>206049</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
         <v>286</v>
@@ -4081,13 +4054,13 @@
         <v>194097</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
         <v>596</v>
@@ -4096,13 +4069,13 @@
         <v>400146</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,37 +4098,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4143,13 @@
         <v>54440</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H33" s="7">
         <v>76</v>
@@ -4185,13 +4158,13 @@
         <v>53458</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M33" s="7">
         <v>156</v>
@@ -4200,13 +4173,13 @@
         <v>107898</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4194,13 @@
         <v>225754</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>335</v>
@@ -4236,13 +4209,13 @@
         <v>225502</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>673</v>
@@ -4251,13 +4224,13 @@
         <v>451255</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4245,13 @@
         <v>371442</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>516</v>
@@ -4287,13 +4260,13 @@
         <v>343591</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>1076</v>
@@ -4302,13 +4275,13 @@
         <v>715033</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4296,13 @@
         <v>48397</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>68</v>
@@ -4338,13 +4311,13 @@
         <v>43095</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>142</v>
@@ -4353,13 +4326,13 @@
         <v>91493</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4347,13 @@
         <v>20133</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -4389,13 +4362,13 @@
         <v>14006</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -4404,13 +4377,13 @@
         <v>34139</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4398,13 @@
         <v>720166</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="7">
         <v>1016</v>
@@ -4440,13 +4413,13 @@
         <v>679652</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M38" s="7">
         <v>2098</v>
@@ -4455,13 +4428,13 @@
         <v>1399818</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,7 +4459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C26548-1B46-4056-A43C-EAAECE8A9BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4447AFD2-4EEF-48FC-84A3-C41F33C249F8}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,10 +4754,10 @@
         <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -4793,13 +4766,13 @@
         <v>158656</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,10 +4787,10 @@
         <v>16697</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>286</v>
@@ -4880,13 +4853,13 @@
         <v>2738</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -4895,13 +4868,13 @@
         <v>11656</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4889,13 @@
         <v>142783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>215</v>
@@ -4931,13 +4904,13 @@
         <v>144023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>418</v>
@@ -4946,18 +4919,18 @@
         <v>286806</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -5026,7 +4999,7 @@
         <v>304</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -5035,13 +5008,13 @@
         <v>12175</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -5050,13 +5023,13 @@
         <v>29043</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5044,13 @@
         <v>43090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -5086,13 +5059,13 @@
         <v>36516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5101,13 +5074,13 @@
         <v>79606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5095,13 @@
         <v>173540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -5137,10 +5110,10 @@
         <v>157627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>324</v>
@@ -5176,10 +5149,10 @@
         <v>328</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H15" s="7">
         <v>35</v>
@@ -5188,13 +5161,13 @@
         <v>24868</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -5203,13 +5176,13 @@
         <v>49440</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5197,13 @@
         <v>8824</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5239,13 +5212,13 @@
         <v>5064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -5254,13 +5227,13 @@
         <v>13888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5248,13 @@
         <v>266894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -5290,13 +5263,13 @@
         <v>236250</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>711</v>
@@ -5305,18 +5278,18 @@
         <v>503144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5334,7 +5307,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5349,7 +5322,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5364,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5352,13 @@
         <v>11955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5394,13 +5367,13 @@
         <v>10001</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>347</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>195</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -5409,13 +5382,13 @@
         <v>21956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5403,13 @@
         <v>19699</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -5445,13 +5418,13 @@
         <v>22922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
@@ -5460,13 +5433,13 @@
         <v>42621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5454,13 @@
         <v>96698</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H21" s="7">
         <v>141</v>
@@ -5496,13 +5469,13 @@
         <v>99587</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M21" s="7">
         <v>280</v>
@@ -5511,13 +5484,13 @@
         <v>196286</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5505,13 @@
         <v>26202</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -5547,13 +5520,13 @@
         <v>19385</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5562,13 +5535,13 @@
         <v>45587</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5556,13 @@
         <v>4017</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5598,13 +5571,13 @@
         <v>4538</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5613,13 +5586,13 @@
         <v>8555</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5607,13 @@
         <v>158571</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
         <v>222</v>
@@ -5649,13 +5622,13 @@
         <v>156434</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
         <v>450</v>
@@ -5664,18 +5637,18 @@
         <v>315005</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5693,37 +5666,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5711,13 @@
         <v>5942</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5753,13 +5726,13 @@
         <v>10329</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -5768,13 +5741,13 @@
         <v>16271</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,10 +5762,10 @@
         <v>24696</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>401</v>
@@ -5807,10 +5780,10 @@
         <v>402</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M27" s="7">
         <v>77</v>
@@ -5819,13 +5792,13 @@
         <v>51868</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5813,13 @@
         <v>116227</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="H28" s="7">
         <v>142</v>
@@ -5855,13 +5828,13 @@
         <v>100923</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M28" s="7">
         <v>314</v>
@@ -5870,13 +5843,13 @@
         <v>217150</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5864,13 @@
         <v>27992</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -5906,13 +5879,13 @@
         <v>29975</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>80</v>
@@ -5921,13 +5894,13 @@
         <v>57966</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5915,13 @@
         <v>5099</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5957,13 +5930,13 @@
         <v>2938</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>427</v>
+        <v>341</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -5972,13 +5945,13 @@
         <v>8037</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5966,13 @@
         <v>179955</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
         <v>243</v>
@@ -6008,13 +5981,13 @@
         <v>171337</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
         <v>508</v>
@@ -6023,13 +5996,13 @@
         <v>351292</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,37 +6025,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6070,13 @@
         <v>50183</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>154</v>
+        <v>431</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H33" s="7">
         <v>71</v>
@@ -6112,13 +6085,13 @@
         <v>46615</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M33" s="7">
         <v>144</v>
@@ -6127,13 +6100,13 @@
         <v>96798</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>217</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6121,13 @@
         <v>111493</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H34" s="7">
         <v>161</v>
@@ -6163,13 +6136,13 @@
         <v>108435</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M34" s="7">
         <v>322</v>
@@ -6178,13 +6151,13 @@
         <v>219928</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6172,13 @@
         <v>464208</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H35" s="7">
         <v>626</v>
@@ -6214,13 +6187,13 @@
         <v>439050</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M35" s="7">
         <v>1286</v>
@@ -6229,13 +6202,13 @@
         <v>903258</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6223,13 @@
         <v>95462</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H36" s="7">
         <v>140</v>
@@ -6265,13 +6238,13 @@
         <v>98665</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M36" s="7">
         <v>275</v>
@@ -6280,13 +6253,13 @@
         <v>194127</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6274,13 @@
         <v>26857</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>204</v>
+        <v>462</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H37" s="7">
         <v>22</v>
@@ -6316,13 +6289,13 @@
         <v>15279</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M37" s="7">
         <v>60</v>
@@ -6331,13 +6304,13 @@
         <v>42136</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>470</v>
+        <v>58</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6325,13 @@
         <v>748203</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="7">
         <v>1020</v>
@@ -6367,13 +6340,13 @@
         <v>708044</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M38" s="7">
         <v>2087</v>
@@ -6382,13 +6355,13 @@
         <v>1456247</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,7 +6386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7A1C56-E4EA-4511-819E-714A3B778A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ECBBF0-0FE1-4FEE-9FBA-B7BEE473522E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6430,7 +6403,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6543,7 +6516,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6573,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6561,13 @@
         <v>17083</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>355</v>
+        <v>470</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H5" s="7">
         <v>38</v>
@@ -6603,13 +6576,13 @@
         <v>23522</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -6618,13 +6591,13 @@
         <v>40605</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6612,13 @@
         <v>36883</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H6" s="7">
         <v>56</v>
@@ -6654,13 +6627,13 @@
         <v>35377</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M6" s="7">
         <v>113</v>
@@ -6669,13 +6642,13 @@
         <v>72260</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6663,13 @@
         <v>45237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -6705,13 +6678,13 @@
         <v>46331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M7" s="7">
         <v>144</v>
@@ -6720,13 +6693,13 @@
         <v>91568</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6714,13 @@
         <v>21728</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6756,13 +6729,13 @@
         <v>17819</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -6771,13 +6744,13 @@
         <v>39547</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,13 +6765,13 @@
         <v>1951</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6807,13 +6780,13 @@
         <v>4216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -6822,13 +6795,13 @@
         <v>6167</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>146</v>
+        <v>508</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6816,13 @@
         <v>122882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>204</v>
@@ -6858,13 +6831,13 @@
         <v>127265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>389</v>
@@ -6873,18 +6846,18 @@
         <v>250146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -6902,7 +6875,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6917,7 +6890,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>511</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6947,13 +6920,13 @@
         <v>19740</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>515</v>
+        <v>424</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>516</v>
+        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -6962,13 +6935,13 @@
         <v>7688</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -6977,13 +6950,13 @@
         <v>27428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>522</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6971,13 @@
         <v>59475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -7013,13 +6986,13 @@
         <v>54126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -7028,13 +7001,13 @@
         <v>113602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7022,13 @@
         <v>128594</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -7064,13 +7037,13 @@
         <v>108057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M14" s="7">
         <v>364</v>
@@ -7079,13 +7052,13 @@
         <v>236651</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7073,13 @@
         <v>42939</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
@@ -7115,13 +7088,13 @@
         <v>38013</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>545</v>
+        <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M15" s="7">
         <v>118</v>
@@ -7130,13 +7103,13 @@
         <v>80952</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7124,13 @@
         <v>7313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -7166,13 +7139,13 @@
         <v>2633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>546</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -7181,13 +7154,13 @@
         <v>9946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,13 +7175,13 @@
         <v>258061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>332</v>
@@ -7217,13 +7190,13 @@
         <v>210517</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>712</v>
@@ -7232,18 +7205,18 @@
         <v>468578</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -7261,7 +7234,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7276,7 +7249,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7291,7 +7264,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7279,13 @@
         <v>7781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7321,13 +7294,13 @@
         <v>14283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>557</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -7336,13 +7309,13 @@
         <v>22063</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7330,13 @@
         <v>49364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -7372,13 +7345,13 @@
         <v>46491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>570</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -7387,13 +7360,13 @@
         <v>95855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,13 +7381,13 @@
         <v>93395</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H21" s="7">
         <v>137</v>
@@ -7423,13 +7396,13 @@
         <v>93357</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="M21" s="7">
         <v>267</v>
@@ -7438,13 +7411,13 @@
         <v>186751</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7432,13 @@
         <v>33570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -7474,13 +7447,13 @@
         <v>29846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7489,13 +7462,13 @@
         <v>63415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>589</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7483,13 @@
         <v>4463</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>592</v>
+        <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>341</v>
+        <v>586</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -7525,13 +7498,13 @@
         <v>4923</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -7540,13 +7513,13 @@
         <v>9386</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,13 +7534,13 @@
         <v>188572</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
         <v>272</v>
@@ -7576,13 +7549,13 @@
         <v>188899</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
         <v>535</v>
@@ -7591,18 +7564,18 @@
         <v>377471</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7620,7 +7593,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7635,7 +7608,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7650,7 +7623,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7638,13 @@
         <v>7321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -7680,13 +7653,13 @@
         <v>5259</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -7695,13 +7668,13 @@
         <v>12580</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>548</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,13 +7689,13 @@
         <v>29080</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>612</v>
+        <v>371</v>
       </c>
       <c r="H27" s="7">
         <v>53</v>
@@ -7731,13 +7704,13 @@
         <v>37736</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="M27" s="7">
         <v>93</v>
@@ -7746,13 +7719,13 @@
         <v>66816</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,13 +7740,13 @@
         <v>95071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
@@ -7782,13 +7755,13 @@
         <v>94487</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -7797,13 +7770,13 @@
         <v>189557</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,13 +7791,13 @@
         <v>38682</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -7833,13 +7806,13 @@
         <v>28981</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>268</v>
+        <v>622</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -7848,13 +7821,13 @@
         <v>67663</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>632</v>
+        <v>132</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,13 +7842,13 @@
         <v>3894</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>433</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -7884,13 +7857,13 @@
         <v>6839</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>509</v>
+        <v>627</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -7899,13 +7872,13 @@
         <v>10733</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>102</v>
+        <v>547</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>338</v>
+        <v>503</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,13 +7893,13 @@
         <v>174048</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
         <v>245</v>
@@ -7935,13 +7908,13 @@
         <v>173301</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
         <v>480</v>
@@ -7950,13 +7923,13 @@
         <v>347348</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,7 +7952,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7994,7 +7967,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8009,7 +7982,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,13 +7997,13 @@
         <v>51925</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>437</v>
+        <v>632</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -8039,13 +8012,13 @@
         <v>50751</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="M33" s="7">
         <v>156</v>
@@ -8054,13 +8027,13 @@
         <v>102676</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>434</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,13 +8048,13 @@
         <v>174802</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>648</v>
+        <v>538</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H34" s="7">
         <v>263</v>
@@ -8090,13 +8063,13 @@
         <v>173730</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="M34" s="7">
         <v>515</v>
@@ -8105,13 +8078,13 @@
         <v>348532</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>176</v>
+        <v>646</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>180</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8099,13 @@
         <v>362296</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="H35" s="7">
         <v>518</v>
@@ -8141,13 +8114,13 @@
         <v>342231</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>657</v>
+        <v>229</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="M35" s="7">
         <v>1038</v>
@@ -8156,13 +8129,13 @@
         <v>704526</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,13 +8150,13 @@
         <v>136919</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="H36" s="7">
         <v>166</v>
@@ -8192,13 +8165,13 @@
         <v>114658</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
@@ -8207,13 +8180,13 @@
         <v>251578</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>671</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8201,13 @@
         <v>17620</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>592</v>
+        <v>169</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -8243,13 +8216,13 @@
         <v>18611</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -8258,13 +8231,13 @@
         <v>36231</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>127</v>
+        <v>669</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>677</v>
+        <v>628</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>678</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8252,13 @@
         <v>743562</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="7">
         <v>1053</v>
@@ -8294,13 +8267,13 @@
         <v>699981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M38" s="7">
         <v>2116</v>
@@ -8309,13 +8282,13 @@
         <v>1443543</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,7 +8313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB87F44-7672-4C35-BDC7-CE77F582D3A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1F9574-6DBF-429E-A5BA-2415C5868E88}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8357,7 +8330,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8464,13 +8437,13 @@
         <v>58503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>109</v>
@@ -8479,13 +8452,13 @@
         <v>57369</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>225</v>
@@ -8494,13 +8467,13 @@
         <v>115871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,7 +8494,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8536,7 +8509,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8551,7 +8524,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,7 +8545,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8587,7 +8560,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8602,7 +8575,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8623,7 +8596,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8638,7 +8611,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8653,7 +8626,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8674,7 +8647,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8689,7 +8662,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8704,7 +8677,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8725,7 +8698,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8740,7 +8713,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8755,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +8743,13 @@
         <v>58503</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -8785,13 +8758,13 @@
         <v>57369</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>225</v>
@@ -8800,18 +8773,18 @@
         <v>115871</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -8823,13 +8796,13 @@
         <v>175299</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>258</v>
@@ -8838,13 +8811,13 @@
         <v>158765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -8853,13 +8826,13 @@
         <v>334063</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>689</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8880,7 +8853,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8895,7 +8868,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8910,7 +8883,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8931,7 +8904,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8946,7 +8919,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8961,7 +8934,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8982,7 +8955,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8997,7 +8970,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9012,7 +8985,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9033,7 +9006,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -9048,7 +9021,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -9063,7 +9036,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,7 +9057,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9099,7 +9072,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9114,7 +9087,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9129,13 +9102,13 @@
         <v>175299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -9144,13 +9117,13 @@
         <v>158765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>534</v>
@@ -9159,18 +9132,18 @@
         <v>334063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -9182,13 +9155,13 @@
         <v>202478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="7">
         <v>234</v>
@@ -9197,13 +9170,13 @@
         <v>176945</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M18" s="7">
         <v>477</v>
@@ -9212,13 +9185,13 @@
         <v>379424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9239,7 +9212,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9254,7 +9227,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9269,7 +9242,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9290,7 +9263,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9305,7 +9278,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9320,7 +9293,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,7 +9314,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -9356,7 +9329,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -9371,7 +9344,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,7 +9365,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9407,7 +9380,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9422,7 +9395,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,7 +9416,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -9458,7 +9431,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9473,7 +9446,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,13 +9461,13 @@
         <v>202478</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
         <v>234</v>
@@ -9503,13 +9476,13 @@
         <v>176945</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
         <v>477</v>
@@ -9518,18 +9491,18 @@
         <v>379424</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -9541,13 +9514,13 @@
         <v>289424</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="7">
         <v>342</v>
@@ -9556,13 +9529,13 @@
         <v>260633</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>684</v>
@@ -9571,13 +9544,13 @@
         <v>550057</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9628,7 +9601,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9679,7 +9652,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9730,7 +9703,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9781,7 +9754,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9832,7 +9805,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9847,13 +9820,13 @@
         <v>289424</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
         <v>342</v>
@@ -9862,13 +9835,13 @@
         <v>260633</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
         <v>684</v>
@@ -9877,13 +9850,13 @@
         <v>550057</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9900,13 +9873,13 @@
         <v>725704</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="7">
         <v>943</v>
@@ -9915,13 +9888,13 @@
         <v>653712</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M32" s="7">
         <v>1920</v>
@@ -9930,13 +9903,13 @@
         <v>1379416</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9957,7 +9930,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9972,7 +9945,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9987,7 +9960,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10008,7 +9981,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10023,7 +9996,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -10038,7 +10011,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10059,7 +10032,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10074,7 +10047,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -10089,7 +10062,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10110,7 +10083,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -10125,7 +10098,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -10140,7 +10113,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10161,7 +10134,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10176,7 +10149,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10191,7 +10164,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10206,13 +10179,13 @@
         <v>725704</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="7">
         <v>943</v>
@@ -10221,13 +10194,13 @@
         <v>653712</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M38" s="7">
         <v>1920</v>
@@ -10236,13 +10209,13 @@
         <v>1379416</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
